--- a/templates/templateStudentSA.xlsx
+++ b/templates/templateStudentSA.xlsx
@@ -473,7 +473,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="str">
-        <v>computacion</v>
+        <v>mecanica</v>
       </c>
     </row>
     <row r="3">
@@ -481,7 +481,31 @@
         <v>2</v>
       </c>
       <c r="B3" t="str">
-        <v>mecanico</v>
+        <v>compu</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="str">
+        <v>computacion</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="str">
+        <v>enfermeria</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="str">
+        <v>Enfermeria</v>
       </c>
     </row>
   </sheetData>

--- a/templates/templateStudentSA.xlsx
+++ b/templates/templateStudentSA.xlsx
@@ -1,14 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\golang\src\github.com\paulantezana\review\templates\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{373AE1FA-8CB5-451B-8FB2-8613197A93FD}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowHeight="7695" windowWidth="20490" xWindow="0" yWindow="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7695" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:relationships="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="student" sheetId="1" relationships:id="rId1"/>
-    <sheet xmlns:relationships="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ProgramIDS" sheetId="2" relationships:id="rId2"/>
+    <sheet name="student" sheetId="1" r:id="rId1"/>
+    <sheet name="ProgramIDS" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>DNI</t>
   </si>
@@ -38,13 +44,34 @@
   </si>
   <si>
     <t>Programa De Estudios</t>
+  </si>
+  <si>
+    <t>mecanica</t>
+  </si>
+  <si>
+    <t>compu</t>
+  </si>
+  <si>
+    <t>computacion</t>
+  </si>
+  <si>
+    <t>enfermeria</t>
+  </si>
+  <si>
+    <t>Enfermeria</t>
+  </si>
+  <si>
+    <t>Año Ingreso</t>
+  </si>
+  <si>
+    <t>Año Egreso</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -60,19 +87,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none">
-        <fgColor/>
-        <bgColor/>
-      </patternFill>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor/>
-        <bgColor/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -85,17 +114,20 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -403,112 +435,114 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1:D8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="true" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="6.85546875"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="37.5703125"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="19.42578125"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="17.85546875"/>
+    <col min="1" max="1" width="6.85546875" customWidth="1"/>
+    <col min="2" max="2" width="37.5703125" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" customWidth="1"/>
+    <col min="6" max="6" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2"/>
-    <row r="3"/>
-    <row r="4"/>
-    <row r="5"/>
-    <row r="6"/>
-    <row r="7"/>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup xmlns:relationships="http://schemas.openxmlformats.org/officeDocument/2006/relationships" relationships:id="rId1" orientation="portrait"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1:B1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="29.7109375"/>
+    <col min="2" max="2" width="29.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="str">
-        <v>ID</v>
-      </c>
-      <c r="B1" t="str">
-        <v>Programa De Estudios</v>
-      </c>
-    </row>
-    <row r="2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="str">
-        <v>mecanica</v>
-      </c>
-    </row>
-    <row r="3">
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="str">
-        <v>compu</v>
-      </c>
-    </row>
-    <row r="4">
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="str">
-        <v>computacion</v>
-      </c>
-    </row>
-    <row r="5">
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="str">
-        <v>enfermeria</v>
-      </c>
-    </row>
-    <row r="6">
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="str">
-        <v>Enfermeria</v>
+      <c r="B6" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/templates/templateStudentSA.xlsx
+++ b/templates/templateStudentSA.xlsx
@@ -1,20 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\golang\src\github.com\paulantezana\review\templates\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{373AE1FA-8CB5-451B-8FB2-8613197A93FD}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7695" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowHeight="7695" windowWidth="20490" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="student" sheetId="1" r:id="rId1"/>
-    <sheet name="ProgramIDS" sheetId="2" r:id="rId2"/>
+    <sheet xmlns:relationships="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="student" sheetId="1" relationships:id="rId1"/>
+    <sheet xmlns:relationships="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ProgramIDS" sheetId="2" relationships:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -70,8 +64,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -98,10 +92,16 @@
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill patternType="none">
+        <fgColor/>
+        <bgColor/>
+      </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="gray125">
+        <fgColor/>
+        <bgColor/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -114,20 +114,20 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -435,24 +435,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="true" workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" customWidth="1"/>
-    <col min="2" max="2" width="37.5703125" customWidth="1"/>
-    <col min="3" max="3" width="19.42578125" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" customWidth="1"/>
-    <col min="6" max="6" width="18.5703125" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="6.85546875"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="37.5703125"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="19.42578125"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="17.85546875"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="14.7109375"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="6" min="6" style="0" width="18.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="true" customHeight="true" ht="21" r="1" s="2" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -472,45 +472,51 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2"/>
+    <row r="3"/>
+    <row r="4"/>
+    <row r="5"/>
+    <row r="6"/>
+    <row r="7"/>
+    <row r="8" spans="1:6">
       <c r="B8" s="1"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup xmlns:relationships="http://schemas.openxmlformats.org/officeDocument/2006/relationships" relationships:id="rId1" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="29.7109375" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="29.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
+      <c r="A1" t="str">
+        <v>ID</v>
+      </c>
+      <c r="B1" t="str">
+        <v>Programa De Estudios</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B2" t="str">
+        <v>computacion</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -518,7 +524,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -526,7 +532,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -534,7 +540,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -543,6 +549,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/templates/templateStudentSA.xlsx
+++ b/templates/templateStudentSA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <bookViews>
     <workbookView windowHeight="7695" windowWidth="20490" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet xmlns:relationships="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="student" sheetId="1" relationships:id="rId1"/>
-    <sheet xmlns:relationships="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ProgramIDS" sheetId="2" relationships:id="rId2"/>
+    <sheet xmlns:relationships="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ProgramIDS" sheetId="2" relationships:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,14 +20,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>DNI</t>
   </si>
   <si>
-    <t>Telefono</t>
-  </si>
-  <si>
     <t>Apellidos y Nombres</t>
   </si>
   <si>
@@ -40,25 +37,16 @@
     <t>Programa De Estudios</t>
   </si>
   <si>
-    <t>mecanica</t>
-  </si>
-  <si>
-    <t>compu</t>
-  </si>
-  <si>
     <t>computacion</t>
   </si>
   <si>
-    <t>enfermeria</t>
-  </si>
-  <si>
-    <t>Enfermeria</t>
-  </si>
-  <si>
-    <t>Año Ingreso</t>
-  </si>
-  <si>
-    <t>Año Egreso</t>
+    <t>Celular</t>
+  </si>
+  <si>
+    <t>Sexo</t>
+  </si>
+  <si>
+    <t>Fecha Nacimiento</t>
   </si>
 </sst>
 </file>
@@ -116,12 +104,13 @@
   <cellStyleXfs count="1">
     <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="14" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -439,37 +428,36 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="6.85546875"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="37.5703125"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="19.42578125"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="17.85546875"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="14.7109375"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="6" min="6" style="0" width="18.5703125"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="18.5703125"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="17.42578125"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="47.85546875"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="19.42578125"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="6" min="6" style="3" width="22.85546875"/>
   </cols>
   <sheetData>
     <row customFormat="true" customHeight="true" ht="21" r="1" s="2" spans="1:6">
       <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2"/>
@@ -479,7 +467,7 @@
     <row r="6"/>
     <row r="7"/>
     <row r="8" spans="1:6">
-      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -489,26 +477,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="29.7109375"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="str">
+    <row r="1">
+      <c r="A1" s="2" t="str">
         <v>ID</v>
       </c>
-      <c r="B1" t="str">
+      <c r="B1" s="2" t="str">
         <v>Programa De Estudios</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -516,39 +501,6 @@
         <v>computacion</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/templates/templateStudentSA.xlsx
+++ b/templates/templateStudentSA.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <bookViews>
     <workbookView windowHeight="7695" windowWidth="20490" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:relationships="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="student" sheetId="1" relationships:id="rId1"/>
+    <sheet xmlns:relationships="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Student" sheetId="1" relationships:id="rId1"/>
     <sheet xmlns:relationships="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ProgramIDS" sheetId="2" relationships:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
     <t>DNI</t>
   </si>
@@ -37,9 +37,6 @@
     <t>Programa De Estudios</t>
   </si>
   <si>
-    <t>computacion</t>
-  </si>
-  <si>
     <t>Celular</t>
   </si>
   <si>
@@ -47,6 +44,149 @@
   </si>
   <si>
     <t>Fecha Nacimiento</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Lugar de nacimiento</t>
+  </si>
+  <si>
+    <t>Distrito</t>
+  </si>
+  <si>
+    <t>Provincia</t>
+  </si>
+  <si>
+    <t>Región</t>
+  </si>
+  <si>
+    <t>Pais</t>
+  </si>
+  <si>
+    <t>Direccion</t>
+  </si>
+  <si>
+    <t>Estado civil</t>
+  </si>
+  <si>
+    <t>Trabaja</t>
+  </si>
+  <si>
+    <t>Puesto</t>
+  </si>
+  <si>
+    <t>yes ó no</t>
+  </si>
+  <si>
+    <t>F ó M</t>
+  </si>
+  <si>
+    <t>Sexo:</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Si se indica </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>yes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = si entonces debe llenar el campo </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>puesto</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">El </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ID Programa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> se obtiene desde la hoja </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ProgramIDS NO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ingrese el nombre del program sino el </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ID</t>
+    </r>
+  </si>
+  <si>
+    <t>Trabaja:</t>
+  </si>
+  <si>
+    <t>Computación E Informática</t>
+  </si>
+  <si>
+    <t>Fecha de nacimiento:</t>
   </si>
 </sst>
 </file>
@@ -78,7 +218,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none">
         <fgColor/>
@@ -91,8 +231,20 @@
         <bgColor/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.0499893185216834"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -100,17 +252,44 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="true" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="true" applyFill="false" applyFont="false" applyNumberFormat="true" applyProtection="false" borderId="1" fillId="0" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="true" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left" wrapText="true"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -425,51 +604,162 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:P12"/>
   <sheetViews>
-    <sheetView tabSelected="true" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView showGridLines="false" tabSelected="true" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="18.5703125"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="17.42578125"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="47.85546875"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="19.42578125"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="6" min="6" style="3" width="22.85546875"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="3" width="18.5703125"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="3" width="17.42578125"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="3" width="47.85546875"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="3" width="19.42578125"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="3" width="11.42578125"/>
+    <col bestFit="true" collapsed="false" customWidth="true" hidden="false" max="6" min="6" style="4" width="5.85546875"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="8" min="7" style="3" width="22.28515625"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="12" min="9" style="3" width="15.140625"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="13" min="13" style="3" width="24.140625"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="14" min="14" style="3" width="13.140625"/>
+    <col bestFit="true" collapsed="false" customWidth="true" hidden="false" max="15" min="15" style="3" width="8.28515625"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="3" width="11.42578125"/>
   </cols>
   <sheetData>
-    <row customFormat="true" customHeight="true" ht="21" r="1" s="2" spans="1:6">
-      <c r="A1" s="2" t="s">
+    <row customFormat="true" customHeight="true" ht="15" r="1" s="6" spans="1:16">
+      <c r="A1" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+    </row>
+    <row customFormat="true" r="2" s="6" spans="1:16">
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+    </row>
+    <row customFormat="true" r="3" s="6" spans="1:16">
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+    </row>
+    <row customFormat="true" customHeight="true" ht="21.75" r="4" s="6" spans="1:16">
+      <c r="F4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row customFormat="true" customHeight="true" ht="21" r="5" s="1" spans="1:16">
+      <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>8</v>
+      <c r="H5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="2"/>
-    <row r="3"/>
-    <row r="4"/>
-    <row r="5"/>
     <row r="6"/>
     <row r="7"/>
-    <row r="8" spans="1:6">
-      <c r="C8" s="1"/>
+    <row r="8"/>
+    <row r="9"/>
+    <row r="10"/>
+    <row r="11"/>
+    <row r="12" spans="1:16">
+      <c r="C12" s="5"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B3"/>
+  </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup xmlns:relationships="http://schemas.openxmlformats.org/officeDocument/2006/relationships" relationships:id="rId1" orientation="portrait"/>
 </worksheet>
@@ -498,7 +788,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="str">
-        <v>computacion</v>
+        <v>Computación E Informática</v>
       </c>
     </row>
   </sheetData>

--- a/templates/templateStudentSA.xlsx
+++ b/templates/templateStudentSA.xlsx
@@ -788,7 +788,23 @@
         <v>1</v>
       </c>
       <c r="B2" t="str">
-        <v>Computación E Informática</v>
+        <v>computacionifon</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="str">
+        <v>mecanicai</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" t="str">
+        <v>Agropecuaria</v>
       </c>
     </row>
   </sheetData>

--- a/templates/templateStudentSA.xlsx
+++ b/templates/templateStudentSA.xlsx
@@ -1,14 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\golang\src\github.com\paulantezana\review\templates\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D0D8907-DCEB-4139-A333-6E781E68940F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowHeight="7695" windowWidth="20490" xWindow="0" yWindow="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:relationships="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Student" sheetId="1" relationships:id="rId1"/>
-    <sheet xmlns:relationships="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ProgramIDS" sheetId="2" relationships:id="rId6"/>
+    <sheet name="Student" sheetId="1" r:id="rId1"/>
+    <sheet name="ProgramIDS" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
   <si>
     <t>DNI</t>
   </si>
@@ -183,17 +189,32 @@
     <t>Trabaja:</t>
   </si>
   <si>
-    <t>Computación E Informática</t>
-  </si>
-  <si>
     <t>Fecha de nacimiento:</t>
+  </si>
+  <si>
+    <t>computacionifon</t>
+  </si>
+  <si>
+    <t>mecanicai</t>
+  </si>
+  <si>
+    <t>Agropecuaria</t>
+  </si>
+  <si>
+    <t>TIPOS DE CAMPO</t>
+  </si>
+  <si>
+    <t>Campos Opcionales</t>
+  </si>
+  <si>
+    <t>Campos Obligatorios</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -217,29 +238,42 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
-      <patternFill patternType="none">
-        <fgColor/>
-        <bgColor/>
-      </patternFill>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor/>
-        <bgColor/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.0499893185216834"/>
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFB9C5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -269,33 +303,45 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
-    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+  <cellXfs count="14">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="true" applyFill="false" applyFont="false" applyNumberFormat="true" applyProtection="false" borderId="1" fillId="0" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="true" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="left" wrapText="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -603,30 +649,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P12"/>
   <sheetViews>
-    <sheetView showGridLines="false" tabSelected="true" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="3" width="18.5703125"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="3" width="17.42578125"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="3" width="47.85546875"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="3" width="19.42578125"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="3" width="11.42578125"/>
-    <col bestFit="true" collapsed="false" customWidth="true" hidden="false" max="6" min="6" style="4" width="5.85546875"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="8" min="7" style="3" width="22.28515625"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="12" min="9" style="3" width="15.140625"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="13" min="13" style="3" width="24.140625"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="14" min="14" style="3" width="13.140625"/>
-    <col bestFit="true" collapsed="false" customWidth="true" hidden="false" max="15" min="15" style="3" width="8.28515625"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="3" width="11.42578125"/>
+    <col min="1" max="1" width="18.5703125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="47.85546875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="3"/>
+    <col min="6" max="6" width="5.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="22.28515625" style="3" customWidth="1"/>
+    <col min="9" max="12" width="15.140625" style="3" customWidth="1"/>
+    <col min="13" max="13" width="24.140625" style="3" customWidth="1"/>
+    <col min="14" max="14" width="13.140625" style="3" customWidth="1"/>
+    <col min="15" max="15" width="8.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.42578125" style="3"/>
   </cols>
   <sheetData>
-    <row customFormat="true" customHeight="true" ht="15" r="1" s="6" spans="1:16">
+    <row r="1" spans="1:16" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>22</v>
       </c>
@@ -641,15 +687,17 @@
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
       <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
+      <c r="I1" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
       <c r="L1" s="7"/>
       <c r="M1" s="7"/>
       <c r="N1" s="7"/>
       <c r="O1" s="7"/>
     </row>
-    <row customFormat="true" r="2" s="6" spans="1:16">
+    <row r="2" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9"/>
       <c r="B2" s="9"/>
       <c r="C2" s="8" t="s">
@@ -664,32 +712,36 @@
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
+      <c r="I2" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
       <c r="N2" s="7"/>
       <c r="O2" s="7"/>
     </row>
-    <row customFormat="true" r="3" s="6" spans="1:16">
+    <row r="3" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
       <c r="B3" s="9"/>
       <c r="C3" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
+      <c r="I3" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
       <c r="L3" s="7"/>
       <c r="M3" s="7"/>
       <c r="N3" s="7"/>
       <c r="O3" s="7"/>
     </row>
-    <row customFormat="true" customHeight="true" ht="21.75" r="4" s="6" spans="1:16">
+    <row r="4" spans="1:16" s="6" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F4" s="2" t="s">
         <v>19</v>
       </c>
@@ -697,23 +749,23 @@
         <v>18</v>
       </c>
     </row>
-    <row customFormat="true" customHeight="true" ht="21" r="5" s="1" spans="1:16">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:16" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="10" t="s">
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="10" t="s">
         <v>6</v>
       </c>
       <c r="G5" s="2" t="s">
@@ -747,66 +799,65 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6"/>
-    <row r="7"/>
-    <row r="8"/>
-    <row r="9"/>
-    <row r="10"/>
-    <row r="11"/>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C12" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="4">
     <mergeCell ref="A1:B3"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="I3:K3"/>
   </mergeCells>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup xmlns:relationships="http://schemas.openxmlformats.org/officeDocument/2006/relationships" relationships:id="rId1" orientation="portrait"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="35"/>
+    <col min="2" max="2" width="35" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="2" t="str">
-        <v>ID</v>
-      </c>
-      <c r="B1" s="2" t="str">
-        <v>Programa De Estudios</v>
-      </c>
-    </row>
-    <row r="2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="str">
-        <v>computacionifon</v>
-      </c>
-    </row>
-    <row r="3">
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3</v>
       </c>
-      <c r="B3" t="str">
-        <v>mecanicai</v>
-      </c>
-    </row>
-    <row r="4">
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>4</v>
       </c>
-      <c r="B4" t="str">
-        <v>Agropecuaria</v>
+      <c r="B4" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/templates/templateStudentSA.xlsx
+++ b/templates/templateStudentSA.xlsx
@@ -1,20 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\golang\src\github.com\paulantezana\review\templates\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D0D8907-DCEB-4139-A333-6E781E68940F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowHeight="11310" windowWidth="20730" xWindow="-120" yWindow="-120"/>
   </bookViews>
   <sheets>
-    <sheet name="Student" sheetId="1" r:id="rId1"/>
-    <sheet name="ProgramIDS" sheetId="2" r:id="rId2"/>
+    <sheet xmlns:relationships="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Student" sheetId="1" relationships:id="rId1"/>
+    <sheet xmlns:relationships="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ProgramIDS" sheetId="2" relationships:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -213,8 +207,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -254,14 +248,20 @@
   </fonts>
   <fills count="5">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill patternType="none">
+        <fgColor/>
+        <bgColor/>
+      </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="gray125">
+        <fgColor/>
+        <bgColor/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <fgColor theme="0" tint="-0.0499893185216834"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -303,45 +303,45 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="14">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="false" applyBorder="true" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="true" applyFill="false" applyFont="false" applyNumberFormat="true" applyProtection="false" borderId="1" fillId="0" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="true" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="1" fillId="4" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -649,30 +649,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1:P12"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="false" tabSelected="true" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="47.85546875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" style="3"/>
-    <col min="6" max="6" width="5.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="22.28515625" style="3" customWidth="1"/>
-    <col min="9" max="12" width="15.140625" style="3" customWidth="1"/>
-    <col min="13" max="13" width="24.140625" style="3" customWidth="1"/>
-    <col min="14" max="14" width="13.140625" style="3" customWidth="1"/>
-    <col min="15" max="15" width="8.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.42578125" style="3"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="3" width="18.5703125"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="3" width="17.42578125"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="3" width="47.85546875"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="3" width="19.42578125"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="3" width="11.42578125"/>
+    <col bestFit="true" collapsed="false" customWidth="true" hidden="false" max="6" min="6" style="4" width="5.85546875"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="8" min="7" style="3" width="22.28515625"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="12" min="9" style="3" width="15.140625"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="13" min="13" style="3" width="24.140625"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="14" min="14" style="3" width="13.140625"/>
+    <col bestFit="true" collapsed="false" customWidth="true" hidden="false" max="15" min="15" style="3" width="8.28515625"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="3" width="11.42578125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="true" customHeight="true" ht="15" r="1" s="6" spans="1:16">
       <c r="A1" s="9" t="s">
         <v>22</v>
       </c>
@@ -697,7 +697,7 @@
       <c r="N1" s="7"/>
       <c r="O1" s="7"/>
     </row>
-    <row r="2" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="true" r="2" s="6" spans="1:16">
       <c r="A2" s="9"/>
       <c r="B2" s="9"/>
       <c r="C2" s="8" t="s">
@@ -722,7 +722,7 @@
       <c r="N2" s="7"/>
       <c r="O2" s="7"/>
     </row>
-    <row r="3" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="true" r="3" s="6" spans="1:16">
       <c r="A3" s="9"/>
       <c r="B3" s="9"/>
       <c r="C3" s="8" t="s">
@@ -741,7 +741,7 @@
       <c r="N3" s="7"/>
       <c r="O3" s="7"/>
     </row>
-    <row r="4" spans="1:16" s="6" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="true" customHeight="true" ht="21.75" r="4" s="6" spans="1:16">
       <c r="F4" s="2" t="s">
         <v>19</v>
       </c>
@@ -749,7 +749,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:16" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="true" customHeight="true" ht="21" r="5" s="1" spans="1:16">
       <c r="A5" s="10" t="s">
         <v>2</v>
       </c>
@@ -799,7 +799,13 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6"/>
+    <row r="7"/>
+    <row r="8"/>
+    <row r="9"/>
+    <row r="10"/>
+    <row r="11"/>
+    <row r="12" spans="1:16">
       <c r="C12" s="5"/>
     </row>
   </sheetData>
@@ -809,55 +815,29 @@
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="I3:K3"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup xmlns:relationships="http://schemas.openxmlformats.org/officeDocument/2006/relationships" relationships:id="rId1" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B4"/>
+<worksheet xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="35" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>27</v>
+    <row r="1">
+      <c r="A1" s="2" t="str">
+        <v>ID</v>
+      </c>
+      <c r="B1" s="2" t="str">
+        <v>Programa De Estudios</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/templates/templateStudentSA.xlsx
+++ b/templates/templateStudentSA.xlsx
@@ -838,6 +838,54 @@
         <v>Programa De Estudios</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="str">
+        <v>Computación E Informática</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="str">
+        <v>Enfermería Técnica</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="str">
+        <v>mecanica</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="str">
+        <v>física</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6" t="str">
+        <v>comono</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7" t="str">
+        <v>somos sss</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/templates/templateStudentSA.xlsx
+++ b/templates/templateStudentSA.xlsx
@@ -846,46 +846,6 @@
         <v>Computación E Informática</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="str">
-        <v>Enfermería Técnica</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="str">
-        <v>mecanica</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="str">
-        <v>física</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6">
-        <v>6</v>
-      </c>
-      <c r="B6" t="str">
-        <v>comono</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7">
-        <v>7</v>
-      </c>
-      <c r="B7" t="str">
-        <v>somos sss</v>
-      </c>
-    </row>
   </sheetData>
 </worksheet>
 </file>